--- a/Face recognition/face recognition-resultados.xlsx
+++ b/Face recognition/face recognition-resultados.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isilon-l3\Perfil-l3\thais\Documents\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuba\Desktop\TCC\Face recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C148BD4-1C5A-4A25-935C-BBCDE61F0059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="resultado-face_recognition-2" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha4" sheetId="5" r:id="rId1"/>
+    <sheet name="resultado-face_recognition-2" sheetId="1" r:id="rId2"/>
+    <sheet name="Resultados" sheetId="2" r:id="rId3"/>
+    <sheet name="Erros" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'resultado-face_recognition-2'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'resultado-face_recognition-2'!$A$1:$F$2641</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="28">
   <si>
     <t>Ind_Origem</t>
   </si>
@@ -50,16 +65,75 @@
   <si>
     <t>Problema na imagem comparada</t>
   </si>
+  <si>
+    <t>Falsos Positivos</t>
+  </si>
+  <si>
+    <t>Falsos negativos</t>
+  </si>
+  <si>
+    <t>Acertos</t>
+  </si>
+  <si>
+    <t>Tempo médio</t>
+  </si>
+  <si>
+    <t>Qtde</t>
+  </si>
+  <si>
+    <t>Pessoa 
+comparada</t>
+  </si>
+  <si>
+    <t>0,01s</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Erros*</t>
+  </si>
+  <si>
+    <t>* Em comparação com ela mesma</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>* * 120 imagens/indivíduo</t>
+  </si>
+  <si>
+    <t>Pessoa</t>
+  </si>
+  <si>
+    <t>Imagem</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tempo total** 
+(minuto/pessoa)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss.0"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +268,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +457,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -491,6 +585,248 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -536,11 +872,151 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -572,10 +1048,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -597,6 +1073,6062 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thais Simões" refreshedDate="43737.866507638886" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="720" xr:uid="{13D34237-82FA-478F-9D5E-B5A1754EE0FF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F721" sheet="resultado-face_recognition-2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Ind_Origem" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="14"/>
+    </cacheField>
+    <cacheField name="Im_Origem" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Ind_Comparado" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="22" count="22">
+        <n v="2"/>
+        <n v="14"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="6"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="17"/>
+        <n v="19"/>
+        <n v="11"/>
+        <n v="5"/>
+        <n v="13"/>
+        <n v="21"/>
+        <n v="10"/>
+        <n v="12"/>
+        <n v="16"/>
+        <n v="20"/>
+        <n v="15"/>
+        <n v="22"/>
+        <n v="3"/>
+        <n v="18"/>
+        <n v="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Im_Comparada" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="8"/>
+        <n v="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Resultado" numFmtId="0">
+      <sharedItems count="3">
+        <s v="[True]"/>
+        <s v="Problema na imagem comparada"/>
+        <s v="[False]"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tempo" numFmtId="47">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:01" maxDate="1899-12-30T00:00:01"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="720">
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="1899-12-30T00:00:01"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E19E5C5-F30B-40D7-B0DF-3F4A20B2257E}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="47" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="43">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,17 +7393,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB25D8-C8D5-48BB-B69B-DCAB065BAE38}">
+  <dimension ref="A3:C47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -53712,8 +60497,1073 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F2641" xr:uid="{8157EADF-6752-4BD5-A35A-C25EA3D8C1C4}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934565EB-872B-42AE-B223-F4E0BD6204BE}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D3" s="27">
+        <v>6</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="34">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="39">
+        <v>3</v>
+      </c>
+      <c r="I4" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J4" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="39">
+        <v>2</v>
+      </c>
+      <c r="I5" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J5" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J7" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J8" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="39">
+        <v>1</v>
+      </c>
+      <c r="I10" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J10" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="39">
+        <v>1</v>
+      </c>
+      <c r="I11" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J11" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1</v>
+      </c>
+      <c r="I12" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J12" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="39">
+        <v>1</v>
+      </c>
+      <c r="I14" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J14" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="39">
+        <v>1</v>
+      </c>
+      <c r="I15" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J15" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="39">
+        <v>1</v>
+      </c>
+      <c r="I16" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J16" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="39">
+        <v>2</v>
+      </c>
+      <c r="I17" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J17" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="39">
+        <v>2</v>
+      </c>
+      <c r="I18" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J18" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D19" s="14">
+        <v>5</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="39">
+        <v>3</v>
+      </c>
+      <c r="I19" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J19" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="39">
+        <v>2</v>
+      </c>
+      <c r="I20" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J20" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14">
+        <v>12</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
+      <c r="I22" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J22" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="39">
+        <v>2</v>
+      </c>
+      <c r="I23" s="40">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="J23" s="45">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16">
+        <v>6</v>
+      </c>
+      <c r="C24" s="35">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="D24" s="16">
+        <v>8</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="46">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="23">
+        <f>SUM(B3:B24)</f>
+        <v>93</v>
+      </c>
+      <c r="C25" s="24">
+        <f>AVERAGE(C3:C24)</f>
+        <v>1.1574074074074079E-5</v>
+      </c>
+      <c r="D25" s="23">
+        <f t="shared" ref="D25:J25" si="0">SUM(D3:D24)</f>
+        <v>61</v>
+      </c>
+      <c r="E25" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111114E-4</v>
+      </c>
+      <c r="F25" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I25" s="24">
+        <f>AVERAGE(I3:I24)</f>
+        <v>9.2592592592592615E-5</v>
+      </c>
+      <c r="J25" s="26">
+        <f t="shared" si="0"/>
+        <v>3.004629629629629E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF27873-A4B9-4FF4-8A49-C6D029BCCB57}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <f>COUNT(B2:B27)</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Face recognition/face recognition-resultados.xlsx
+++ b/Face recognition/face recognition-resultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isilon-l3\Perfil-l3\thais\Documents\TCC-master\Face recognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuba\Desktop\TCC-master\Face recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48AE0C5-CB00-4C8F-9CC6-194168C20455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado-face_recognition-2" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'resultado-face_recognition-2'!$A$1:$F$2641</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss.0"/>
@@ -996,6 +997,33 @@
     <xf numFmtId="47" fontId="13" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1014,47 +1042,20 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1087,10 +1088,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1376,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K2641"/>
   <sheetViews>
@@ -54228,7 +54229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2641">
+  <autoFilter ref="A1:F2641" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -54246,7 +54247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -54269,40 +54270,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="32" t="s">
         <v>13</v>
       </c>
@@ -54327,18 +54328,18 @@
       <c r="J2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="47">
         <f>SUM(C3,G3,I3)</f>
         <v>7</v>
       </c>
@@ -54369,11 +54370,11 @@
       <c r="K3" s="21">
         <v>1.3657407407407409E-3</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -55125,7 +55126,7 @@
       <c r="A25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="46">
         <f>SUM(B3:B24)</f>
         <v>120</v>
       </c>
@@ -55185,7 +55186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55195,206 +55196,206 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
-        <v>2</v>
-      </c>
-      <c r="B2" s="47">
+      <c r="A2" s="56">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49">
+      <c r="A3" s="58"/>
+      <c r="B3" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51">
+      <c r="A4" s="57"/>
+      <c r="B4" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
-        <v>3</v>
-      </c>
-      <c r="B5" s="47">
+      <c r="A5" s="56">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51">
+      <c r="A6" s="57"/>
+      <c r="B6" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
+      <c r="A7" s="43">
         <v>5</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
-        <v>6</v>
-      </c>
-      <c r="B8" s="53">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52">
-        <v>8</v>
-      </c>
-      <c r="B9" s="53">
+      <c r="A9" s="43">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52">
+      <c r="A10" s="43">
         <v>9</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52">
+      <c r="A12" s="43">
         <v>12</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52">
+      <c r="A13" s="43">
         <v>13</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
+      <c r="A14" s="43">
         <v>14</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="56">
         <v>15</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51">
+      <c r="A16" s="57"/>
+      <c r="B16" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="56">
         <v>16</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51">
+      <c r="A18" s="57"/>
+      <c r="B18" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="56">
         <v>17</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49">
+      <c r="A20" s="58"/>
+      <c r="B20" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51">
+      <c r="A21" s="57"/>
+      <c r="B21" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+      <c r="A22" s="56">
         <v>18</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51">
+      <c r="A23" s="57"/>
+      <c r="B23" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+      <c r="A24" s="56">
         <v>20</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51">
+      <c r="A25" s="57"/>
+      <c r="B25" s="42">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="56">
         <v>21</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51">
+      <c r="A27" s="57"/>
+      <c r="B27" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="45">
         <f>COUNT(B2:B27)</f>
         <v>26</v>
       </c>
